--- a/Code/Results/Cases/Case_2_186/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_186/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9933124019657534</v>
+        <v>1.028443085198718</v>
       </c>
       <c r="D2">
-        <v>1.013805330200212</v>
+        <v>1.033123255901119</v>
       </c>
       <c r="E2">
-        <v>1.013644033489694</v>
+        <v>1.051199846960221</v>
       </c>
       <c r="F2">
-        <v>1.019184059384463</v>
+        <v>1.056321057559269</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044398791885528</v>
+        <v>1.03428480327816</v>
       </c>
       <c r="J2">
-        <v>1.015694994567855</v>
+        <v>1.033595376084792</v>
       </c>
       <c r="K2">
-        <v>1.025075627763776</v>
+        <v>1.035926511816502</v>
       </c>
       <c r="L2">
-        <v>1.024916502323845</v>
+        <v>1.053952009755019</v>
       </c>
       <c r="M2">
-        <v>1.030382446039563</v>
+        <v>1.059059089846366</v>
       </c>
       <c r="N2">
-        <v>1.008832274016273</v>
+        <v>1.01515093291506</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9993968839086587</v>
+        <v>1.029658276158951</v>
       </c>
       <c r="D3">
-        <v>1.018431871377275</v>
+        <v>1.034047354632595</v>
       </c>
       <c r="E3">
-        <v>1.01919585882838</v>
+        <v>1.052415821133193</v>
       </c>
       <c r="F3">
-        <v>1.025097445028518</v>
+        <v>1.057599095744064</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046415677473321</v>
+        <v>1.034584427715368</v>
       </c>
       <c r="J3">
-        <v>1.019904003991051</v>
+        <v>1.034449816657127</v>
       </c>
       <c r="K3">
-        <v>1.028834222154255</v>
+        <v>1.036659217644161</v>
       </c>
       <c r="L3">
-        <v>1.029588878069115</v>
+        <v>1.05497954492784</v>
       </c>
       <c r="M3">
-        <v>1.035418962584503</v>
+        <v>1.060149561717304</v>
       </c>
       <c r="N3">
-        <v>1.010265681614595</v>
+        <v>1.015438401873628</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003228226546644</v>
+        <v>1.030443747351015</v>
       </c>
       <c r="D4">
-        <v>1.021345859203105</v>
+        <v>1.034644271461641</v>
       </c>
       <c r="E4">
-        <v>1.022706019471398</v>
+        <v>1.053202924754143</v>
       </c>
       <c r="F4">
-        <v>1.028832781318062</v>
+        <v>1.058426086631116</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047670684515115</v>
+        <v>1.034776198656056</v>
       </c>
       <c r="J4">
-        <v>1.022549712900324</v>
+        <v>1.035001383112741</v>
       </c>
       <c r="K4">
-        <v>1.03119330774371</v>
+        <v>1.037131669499758</v>
       </c>
       <c r="L4">
-        <v>1.032537913966515</v>
+        <v>1.055644149565556</v>
       </c>
       <c r="M4">
-        <v>1.038595241643523</v>
+        <v>1.060854630338649</v>
       </c>
       <c r="N4">
-        <v>1.011166270366105</v>
+        <v>1.015623848148415</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004814800658528</v>
+        <v>1.030773761398049</v>
       </c>
       <c r="D5">
-        <v>1.022552630747064</v>
+        <v>1.034894968269392</v>
       </c>
       <c r="E5">
-        <v>1.024162924924013</v>
+        <v>1.053533893799345</v>
       </c>
       <c r="F5">
-        <v>1.030382341028617</v>
+        <v>1.058773759324046</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048186719797938</v>
+        <v>1.034856315475438</v>
       </c>
       <c r="J5">
-        <v>1.023644138028262</v>
+        <v>1.035232948741405</v>
       </c>
       <c r="K5">
-        <v>1.032168303572831</v>
+        <v>1.037329892568565</v>
       </c>
       <c r="L5">
-        <v>1.033760700282495</v>
+        <v>1.055923484253699</v>
       </c>
       <c r="M5">
-        <v>1.03991163628547</v>
+        <v>1.061150913919091</v>
       </c>
       <c r="N5">
-        <v>1.011538696643032</v>
+        <v>1.015701674884904</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005079811884361</v>
+        <v>1.030829160674332</v>
       </c>
       <c r="D6">
-        <v>1.022754204218677</v>
+        <v>1.034937046915187</v>
       </c>
       <c r="E6">
-        <v>1.02440647099748</v>
+        <v>1.053589469160404</v>
       </c>
       <c r="F6">
-        <v>1.03064132886085</v>
+        <v>1.058832135498467</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048272697414254</v>
+        <v>1.034869737920652</v>
       </c>
       <c r="J6">
-        <v>1.02382687329942</v>
+        <v>1.035271811326516</v>
       </c>
       <c r="K6">
-        <v>1.032331046271879</v>
+        <v>1.03736315192488</v>
       </c>
       <c r="L6">
-        <v>1.033965037547384</v>
+        <v>1.05597038201074</v>
       </c>
       <c r="M6">
-        <v>1.040131580195641</v>
+        <v>1.06120065382834</v>
       </c>
       <c r="N6">
-        <v>1.011600873516556</v>
+        <v>1.01571473444078</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003249519701757</v>
+        <v>1.030448157789658</v>
       </c>
       <c r="D7">
-        <v>1.021362054897036</v>
+        <v>1.034647622253848</v>
       </c>
       <c r="E7">
-        <v>1.022725559275677</v>
+        <v>1.053207346898535</v>
       </c>
       <c r="F7">
-        <v>1.028853566952886</v>
+        <v>1.058430732225432</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047677624739087</v>
+        <v>1.034777271159426</v>
       </c>
       <c r="J7">
-        <v>1.02256440571447</v>
+        <v>1.035004478531558</v>
       </c>
       <c r="K7">
-        <v>1.03120640065633</v>
+        <v>1.03713431971945</v>
       </c>
       <c r="L7">
-        <v>1.032554318630673</v>
+        <v>1.055647882302935</v>
       </c>
       <c r="M7">
-        <v>1.03861290456594</v>
+        <v>1.060858589792059</v>
       </c>
       <c r="N7">
-        <v>1.011171270696488</v>
+        <v>1.015624888602473</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9953913146350145</v>
+        <v>1.028853939958326</v>
       </c>
       <c r="D8">
-        <v>1.015385898236915</v>
+        <v>1.033435774803507</v>
       </c>
       <c r="E8">
-        <v>1.015537903073195</v>
+        <v>1.051610732882824</v>
       </c>
       <c r="F8">
-        <v>1.021201995093299</v>
+        <v>1.056752974826074</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045091029684662</v>
+        <v>1.034386499159746</v>
       </c>
       <c r="J8">
-        <v>1.017134054982276</v>
+        <v>1.033884411260262</v>
       </c>
       <c r="K8">
-        <v>1.026361414160962</v>
+        <v>1.036174477163669</v>
       </c>
       <c r="L8">
-        <v>1.026511437793065</v>
+        <v>1.054299328981728</v>
       </c>
       <c r="M8">
-        <v>1.032102230834768</v>
+        <v>1.059427732801794</v>
       </c>
       <c r="N8">
-        <v>1.00932244001663</v>
+        <v>1.015248201743099</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9806762741150437</v>
+        <v>1.026038178879723</v>
       </c>
       <c r="D9">
-        <v>1.004205251721164</v>
+        <v>1.03129234912249</v>
       </c>
       <c r="E9">
-        <v>1.00219752680648</v>
+        <v>1.048799404565999</v>
       </c>
       <c r="F9">
-        <v>1.006972386402792</v>
+        <v>1.053796565556439</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040129573961117</v>
+        <v>1.033681754625613</v>
       </c>
       <c r="J9">
-        <v>1.006930354562674</v>
+        <v>1.031900575496479</v>
       </c>
       <c r="K9">
-        <v>1.017230468120482</v>
+        <v>1.03447036072836</v>
       </c>
       <c r="L9">
-        <v>1.015255051003747</v>
+        <v>1.051920786675179</v>
       </c>
       <c r="M9">
-        <v>1.019953345380223</v>
+        <v>1.056902161016236</v>
       </c>
       <c r="N9">
-        <v>1.005845477164872</v>
+        <v>1.01458007993028</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9701930712849163</v>
+        <v>1.024156429456433</v>
       </c>
       <c r="D10">
-        <v>0.9962537854097282</v>
+        <v>1.029857942897388</v>
       </c>
       <c r="E10">
-        <v>0.9927813729673479</v>
+        <v>1.046926477602459</v>
       </c>
       <c r="F10">
-        <v>0.9969081485821623</v>
+        <v>1.051825493826484</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036519528973183</v>
+        <v>1.033201027889643</v>
       </c>
       <c r="J10">
-        <v>0.99964132436356</v>
+        <v>1.030571100465203</v>
       </c>
       <c r="K10">
-        <v>1.010691009955861</v>
+        <v>1.033325630814996</v>
       </c>
       <c r="L10">
-        <v>1.007282196692919</v>
+        <v>1.050333486082064</v>
       </c>
       <c r="M10">
-        <v>1.011333452659946</v>
+        <v>1.055215486583788</v>
       </c>
       <c r="N10">
-        <v>1.003360354688287</v>
+        <v>1.014131708734251</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9654712346079773</v>
+        <v>1.023340486264152</v>
       </c>
       <c r="D11">
-        <v>0.992677272736216</v>
+        <v>1.029235516257294</v>
       </c>
       <c r="E11">
-        <v>0.9885627347593482</v>
+        <v>1.046115757075457</v>
       </c>
       <c r="F11">
-        <v>0.9923939743722028</v>
+        <v>1.050971934326917</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034876723980295</v>
+        <v>1.032990274653596</v>
       </c>
       <c r="J11">
-        <v>0.996354501225956</v>
+        <v>1.029993758205745</v>
       </c>
       <c r="K11">
-        <v>1.007738618960775</v>
+        <v>1.032827879372177</v>
       </c>
       <c r="L11">
-        <v>1.003703613129145</v>
+        <v>1.049645760526296</v>
       </c>
       <c r="M11">
-        <v>1.007460768940315</v>
+        <v>1.05448440761185</v>
       </c>
       <c r="N11">
-        <v>1.002239586746885</v>
+        <v>1.013936850558652</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9636877150169483</v>
+        <v>1.023037234840678</v>
       </c>
       <c r="D12">
-        <v>0.9913272697682498</v>
+        <v>1.029004119332248</v>
       </c>
       <c r="E12">
-        <v>0.9869728424910862</v>
+        <v>1.045814657240171</v>
       </c>
       <c r="F12">
-        <v>0.9906918924060313</v>
+        <v>1.050654870555295</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034253793216401</v>
+        <v>1.032911600757733</v>
       </c>
       <c r="J12">
-        <v>0.9951125470973698</v>
+        <v>1.029779054382744</v>
       </c>
       <c r="K12">
-        <v>1.006622533404596</v>
+        <v>1.032642678738131</v>
       </c>
       <c r="L12">
-        <v>1.00235395164903</v>
+        <v>1.049390244116625</v>
       </c>
       <c r="M12">
-        <v>1.00599962049154</v>
+        <v>1.054212738944226</v>
       </c>
       <c r="N12">
-        <v>1.00181608586211</v>
+        <v>1.013864364149877</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.964071664210468</v>
+        <v>1.023102291221789</v>
       </c>
       <c r="D13">
-        <v>0.9916178494884749</v>
+        <v>1.029053763834977</v>
       </c>
       <c r="E13">
-        <v>0.9873149447070553</v>
+        <v>1.045879242504992</v>
       </c>
       <c r="F13">
-        <v>0.9910581719669522</v>
+        <v>1.050722882480184</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034388002594065</v>
+        <v>1.032928494271667</v>
       </c>
       <c r="J13">
-        <v>0.9953799295584403</v>
+        <v>1.029825120574756</v>
       </c>
       <c r="K13">
-        <v>1.006862839331195</v>
+        <v>1.032682419120953</v>
       </c>
       <c r="L13">
-        <v>1.002644407307637</v>
+        <v>1.049445056210942</v>
       </c>
       <c r="M13">
-        <v>1.006314094711411</v>
+        <v>1.054271017967503</v>
       </c>
       <c r="N13">
-        <v>1.001907262273753</v>
+        <v>1.01387991760169</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9653244260840513</v>
+        <v>1.023315422972686</v>
       </c>
       <c r="D14">
-        <v>0.9925661292848051</v>
+        <v>1.029216393004551</v>
       </c>
       <c r="E14">
-        <v>0.9884317911817075</v>
+        <v>1.046090867311656</v>
       </c>
       <c r="F14">
-        <v>0.9922538074913185</v>
+        <v>1.050945726034274</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034825496465319</v>
+        <v>1.032983779421066</v>
       </c>
       <c r="J14">
-        <v>0.9962522799458978</v>
+        <v>1.029976015898686</v>
       </c>
       <c r="K14">
-        <v>1.007646767433945</v>
+        <v>1.032812577037031</v>
       </c>
       <c r="L14">
-        <v>1.003592475051282</v>
+        <v>1.04962464078981</v>
       </c>
       <c r="M14">
-        <v>1.007340462055551</v>
+        <v>1.054461953722811</v>
       </c>
       <c r="N14">
-        <v>1.002204729839934</v>
+        <v>1.013930861004402</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9660922994996053</v>
+        <v>1.023446717343561</v>
       </c>
       <c r="D15">
-        <v>0.9931474965324444</v>
+        <v>1.029316567654368</v>
       </c>
       <c r="E15">
-        <v>0.9891168297968855</v>
+        <v>1.046221261279759</v>
       </c>
       <c r="F15">
-        <v>0.9929870651536296</v>
+        <v>1.051083025391619</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03509334140955</v>
+        <v>1.033017790621639</v>
       </c>
       <c r="J15">
-        <v>0.9967869240785995</v>
+        <v>1.030068953870649</v>
       </c>
       <c r="K15">
-        <v>1.008127154946964</v>
+        <v>1.032892730020115</v>
       </c>
       <c r="L15">
-        <v>1.004173859830695</v>
+        <v>1.049735280156848</v>
       </c>
       <c r="M15">
-        <v>1.007969787461166</v>
+        <v>1.054579580442398</v>
       </c>
       <c r="N15">
-        <v>1.002387040330865</v>
+        <v>1.013962234663846</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9705024161173892</v>
+        <v>1.024210556741218</v>
       </c>
       <c r="D16">
-        <v>0.996488212265733</v>
+        <v>1.029899223358912</v>
       </c>
       <c r="E16">
-        <v>0.9930582333738996</v>
+        <v>1.046980287905772</v>
       </c>
       <c r="F16">
-        <v>0.997204294146334</v>
+        <v>1.051882139987224</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036626816024095</v>
+        <v>1.033214960135174</v>
       </c>
       <c r="J16">
-        <v>0.9998565869953316</v>
+        <v>1.030609381381792</v>
       </c>
       <c r="K16">
-        <v>1.010884298796382</v>
+        <v>1.033358621057499</v>
       </c>
       <c r="L16">
-        <v>1.007516914954219</v>
+        <v>1.050379119242706</v>
       </c>
       <c r="M16">
-        <v>1.011587383285439</v>
+        <v>1.055263990126224</v>
       </c>
       <c r="N16">
-        <v>1.003433754636838</v>
+        <v>1.01414462580393</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9732184175534493</v>
+        <v>1.024689387118955</v>
       </c>
       <c r="D17">
-        <v>0.9985470264344019</v>
+        <v>1.030264353450179</v>
       </c>
       <c r="E17">
-        <v>0.9954915991355184</v>
+        <v>1.047456475511544</v>
       </c>
       <c r="F17">
-        <v>0.9998065687248641</v>
+        <v>1.052383382034635</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037566894903769</v>
+        <v>1.033337943918385</v>
       </c>
       <c r="J17">
-        <v>1.001746152156138</v>
+        <v>1.030947928425339</v>
       </c>
       <c r="K17">
-        <v>1.012580579592311</v>
+        <v>1.033650305230768</v>
       </c>
       <c r="L17">
-        <v>1.009579141431507</v>
+        <v>1.050782870030055</v>
       </c>
       <c r="M17">
-        <v>1.013817990342277</v>
+        <v>1.055693102917718</v>
       </c>
       <c r="N17">
-        <v>1.004078039697532</v>
+        <v>1.014258844262523</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.974785162898263</v>
+        <v>1.024968571673268</v>
       </c>
       <c r="D18">
-        <v>0.9997351267924216</v>
+        <v>1.030477200484097</v>
       </c>
       <c r="E18">
-        <v>0.9968974197613077</v>
+        <v>1.047734253836157</v>
       </c>
       <c r="F18">
-        <v>1.001309485033884</v>
+        <v>1.052675741248743</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038107598781787</v>
+        <v>1.033409427918643</v>
       </c>
       <c r="J18">
-        <v>1.002835806318303</v>
+        <v>1.031145236129715</v>
       </c>
       <c r="K18">
-        <v>1.013558433859726</v>
+        <v>1.033820239503816</v>
       </c>
       <c r="L18">
-        <v>1.010769923552527</v>
+        <v>1.051018331254639</v>
       </c>
       <c r="M18">
-        <v>1.015105653278509</v>
+        <v>1.055943326134091</v>
       </c>
       <c r="N18">
-        <v>1.004449563203358</v>
+        <v>1.014325397450581</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9753164852110209</v>
+        <v>1.025063747991634</v>
       </c>
       <c r="D19">
-        <v>1.00013811440546</v>
+        <v>1.03054975430403</v>
       </c>
       <c r="E19">
-        <v>0.9973745226881714</v>
+        <v>1.047828973579421</v>
       </c>
       <c r="F19">
-        <v>1.001819458186622</v>
+        <v>1.052775427120115</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038290692646076</v>
+        <v>1.033433759674842</v>
       </c>
       <c r="J19">
-        <v>1.003205272255003</v>
+        <v>1.031212485705114</v>
       </c>
       <c r="K19">
-        <v>1.013889933609464</v>
+        <v>1.03387814879829</v>
       </c>
       <c r="L19">
-        <v>1.011173942016675</v>
+        <v>1.051098610770104</v>
       </c>
       <c r="M19">
-        <v>1.015542483907547</v>
+        <v>1.056028633815296</v>
       </c>
       <c r="N19">
-        <v>1.004575531507363</v>
+        <v>1.014348078767784</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9729288365900176</v>
+        <v>1.024638024462999</v>
       </c>
       <c r="D20">
-        <v>0.9983274662986291</v>
+        <v>1.030225191614438</v>
       </c>
       <c r="E20">
-        <v>0.995231931968857</v>
+        <v>1.047405382402965</v>
       </c>
       <c r="F20">
-        <v>0.9995289279323931</v>
+        <v>1.052329604231286</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037466827573783</v>
+        <v>1.033324774824747</v>
       </c>
       <c r="J20">
-        <v>1.001544722383189</v>
+        <v>1.030911622207324</v>
       </c>
       <c r="K20">
-        <v>1.012399789088307</v>
+        <v>1.033619030997268</v>
       </c>
       <c r="L20">
-        <v>1.009359143467497</v>
+        <v>1.050739555524019</v>
       </c>
       <c r="M20">
-        <v>1.013580065635168</v>
+        <v>1.055647070541156</v>
       </c>
       <c r="N20">
-        <v>1.004009359735009</v>
+        <v>1.014246596793938</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9649563553951488</v>
+        <v>1.023252665810183</v>
       </c>
       <c r="D21">
-        <v>0.9922874913819808</v>
+        <v>1.029168508301497</v>
       </c>
       <c r="E21">
-        <v>0.9881035541468874</v>
+        <v>1.046028548056199</v>
       </c>
       <c r="F21">
-        <v>0.9919024371947011</v>
+        <v>1.050880104565167</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034697023026887</v>
+        <v>1.032967510116149</v>
       </c>
       <c r="J21">
-        <v>0.9959959889363076</v>
+        <v>1.029931587993981</v>
       </c>
       <c r="K21">
-        <v>1.007416467749038</v>
+        <v>1.032774257445211</v>
       </c>
       <c r="L21">
-        <v>1.003313868659397</v>
+        <v>1.049571759407121</v>
       </c>
       <c r="M21">
-        <v>1.00703886166743</v>
+        <v>1.054405731052291</v>
       </c>
       <c r="N21">
-        <v>1.002117335887126</v>
+        <v>1.013915862412328</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9597711042748418</v>
+        <v>1.02238062857041</v>
       </c>
       <c r="D22">
-        <v>0.9883645240106611</v>
+        <v>1.028502971790281</v>
       </c>
       <c r="E22">
-        <v>0.9834882023576522</v>
+        <v>1.045163095449846</v>
       </c>
       <c r="F22">
-        <v>0.9869598313565594</v>
+        <v>1.049968665492684</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032881509018803</v>
+        <v>1.032740622375945</v>
       </c>
       <c r="J22">
-        <v>0.9923844686221565</v>
+        <v>1.029313935546284</v>
       </c>
       <c r="K22">
-        <v>1.004170060428261</v>
+        <v>1.032241299611404</v>
       </c>
       <c r="L22">
-        <v>0.9993940145738212</v>
+        <v>1.048837145200207</v>
       </c>
       <c r="M22">
-        <v>1.002794119591376</v>
+        <v>1.05362459436266</v>
       </c>
       <c r="N22">
-        <v>1.00088582311599</v>
+        <v>1.013707294827772</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9625370650931458</v>
+        <v>1.022843008671583</v>
       </c>
       <c r="D23">
-        <v>0.9904565831332274</v>
+        <v>1.028855895619685</v>
       </c>
       <c r="E23">
-        <v>0.9859481388189787</v>
+        <v>1.045621868470626</v>
       </c>
       <c r="F23">
-        <v>0.9895946486345597</v>
+        <v>1.050451845244382</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033851238286694</v>
+        <v>1.032861114479607</v>
       </c>
       <c r="J23">
-        <v>0.994311173298052</v>
+        <v>1.029641504491662</v>
       </c>
       <c r="K23">
-        <v>1.00590224064176</v>
+        <v>1.032524003276994</v>
       </c>
       <c r="L23">
-        <v>1.0014838006517</v>
+        <v>1.049226614363119</v>
       </c>
       <c r="M23">
-        <v>1.00505743002291</v>
+        <v>1.054038752854793</v>
       </c>
       <c r="N23">
-        <v>1.001542820242144</v>
+        <v>1.013817919608132</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.973059739532918</v>
+        <v>1.024661233373348</v>
       </c>
       <c r="D24">
-        <v>0.998426715430743</v>
+        <v>1.030242887555278</v>
       </c>
       <c r="E24">
-        <v>0.9953493060437946</v>
+        <v>1.047428469098648</v>
       </c>
       <c r="F24">
-        <v>0.9996544279088899</v>
+        <v>1.05235390412674</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037512067210276</v>
+        <v>1.033330726144885</v>
       </c>
       <c r="J24">
-        <v>1.001635778339452</v>
+        <v>1.030928027922074</v>
       </c>
       <c r="K24">
-        <v>1.012481516155813</v>
+        <v>1.033633163095695</v>
       </c>
       <c r="L24">
-        <v>1.009458588300934</v>
+        <v>1.050759127607739</v>
       </c>
       <c r="M24">
-        <v>1.013687614899367</v>
+        <v>1.055667870810085</v>
       </c>
       <c r="N24">
-        <v>1.004040406435456</v>
+        <v>1.014252131109481</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9845920196678998</v>
+        <v>1.026766914193903</v>
       </c>
       <c r="D25">
-        <v>1.007178642779565</v>
+        <v>1.031847431724488</v>
       </c>
       <c r="E25">
-        <v>1.005733010438611</v>
+        <v>1.049525963310387</v>
       </c>
       <c r="F25">
-        <v>1.010746940515268</v>
+        <v>1.054560881110589</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041463073602896</v>
+        <v>1.033865865996112</v>
       </c>
       <c r="J25">
-        <v>1.009649287690001</v>
+        <v>1.032414656212127</v>
       </c>
       <c r="K25">
-        <v>1.019666532380225</v>
+        <v>1.034912434838374</v>
       </c>
       <c r="L25">
-        <v>1.018242975961774</v>
+        <v>1.052535971522301</v>
       </c>
       <c r="M25">
-        <v>1.023180683765028</v>
+        <v>1.05755559447903</v>
       </c>
       <c r="N25">
-        <v>1.006772247637365</v>
+        <v>1.014753324274017</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_186/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_186/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028443085198718</v>
+        <v>0.9933124019657542</v>
       </c>
       <c r="D2">
-        <v>1.033123255901119</v>
+        <v>1.013805330200213</v>
       </c>
       <c r="E2">
-        <v>1.051199846960221</v>
+        <v>1.013644033489695</v>
       </c>
       <c r="F2">
-        <v>1.056321057559269</v>
+        <v>1.019184059384464</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03428480327816</v>
+        <v>1.044398791885528</v>
       </c>
       <c r="J2">
-        <v>1.033595376084792</v>
+        <v>1.015694994567856</v>
       </c>
       <c r="K2">
-        <v>1.035926511816502</v>
+        <v>1.025075627763777</v>
       </c>
       <c r="L2">
-        <v>1.053952009755019</v>
+        <v>1.024916502323846</v>
       </c>
       <c r="M2">
-        <v>1.059059089846366</v>
+        <v>1.030382446039565</v>
       </c>
       <c r="N2">
-        <v>1.01515093291506</v>
+        <v>1.008832274016273</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029658276158951</v>
+        <v>0.9993968839086592</v>
       </c>
       <c r="D3">
-        <v>1.034047354632595</v>
+        <v>1.018431871377276</v>
       </c>
       <c r="E3">
-        <v>1.052415821133193</v>
+        <v>1.01919585882838</v>
       </c>
       <c r="F3">
-        <v>1.057599095744064</v>
+        <v>1.025097445028518</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034584427715368</v>
+        <v>1.046415677473321</v>
       </c>
       <c r="J3">
-        <v>1.034449816657127</v>
+        <v>1.019904003991051</v>
       </c>
       <c r="K3">
-        <v>1.036659217644161</v>
+        <v>1.028834222154255</v>
       </c>
       <c r="L3">
-        <v>1.05497954492784</v>
+        <v>1.029588878069115</v>
       </c>
       <c r="M3">
-        <v>1.060149561717304</v>
+        <v>1.035418962584502</v>
       </c>
       <c r="N3">
-        <v>1.015438401873628</v>
+        <v>1.010265681614595</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030443747351015</v>
+        <v>1.003228226546643</v>
       </c>
       <c r="D4">
-        <v>1.034644271461641</v>
+        <v>1.021345859203105</v>
       </c>
       <c r="E4">
-        <v>1.053202924754143</v>
+        <v>1.022706019471398</v>
       </c>
       <c r="F4">
-        <v>1.058426086631116</v>
+        <v>1.028832781318062</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034776198656056</v>
+        <v>1.047670684515114</v>
       </c>
       <c r="J4">
-        <v>1.035001383112741</v>
+        <v>1.022549712900324</v>
       </c>
       <c r="K4">
-        <v>1.037131669499758</v>
+        <v>1.03119330774371</v>
       </c>
       <c r="L4">
-        <v>1.055644149565556</v>
+        <v>1.032537913966514</v>
       </c>
       <c r="M4">
-        <v>1.060854630338649</v>
+        <v>1.038595241643522</v>
       </c>
       <c r="N4">
-        <v>1.015623848148415</v>
+        <v>1.011166270366105</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030773761398049</v>
+        <v>1.004814800658528</v>
       </c>
       <c r="D5">
-        <v>1.034894968269392</v>
+        <v>1.022552630747063</v>
       </c>
       <c r="E5">
-        <v>1.053533893799345</v>
+        <v>1.024162924924013</v>
       </c>
       <c r="F5">
-        <v>1.058773759324046</v>
+        <v>1.030382341028616</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034856315475438</v>
+        <v>1.048186719797937</v>
       </c>
       <c r="J5">
-        <v>1.035232948741405</v>
+        <v>1.023644138028262</v>
       </c>
       <c r="K5">
-        <v>1.037329892568565</v>
+        <v>1.032168303572831</v>
       </c>
       <c r="L5">
-        <v>1.055923484253699</v>
+        <v>1.033760700282495</v>
       </c>
       <c r="M5">
-        <v>1.061150913919091</v>
+        <v>1.039911636285469</v>
       </c>
       <c r="N5">
-        <v>1.015701674884904</v>
+        <v>1.011538696643032</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030829160674332</v>
+        <v>1.00507981188436</v>
       </c>
       <c r="D6">
-        <v>1.034937046915187</v>
+        <v>1.022754204218676</v>
       </c>
       <c r="E6">
-        <v>1.053589469160404</v>
+        <v>1.024406470997479</v>
       </c>
       <c r="F6">
-        <v>1.058832135498467</v>
+        <v>1.03064132886085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034869737920652</v>
+        <v>1.048272697414253</v>
       </c>
       <c r="J6">
-        <v>1.035271811326516</v>
+        <v>1.02382687329942</v>
       </c>
       <c r="K6">
-        <v>1.03736315192488</v>
+        <v>1.032331046271878</v>
       </c>
       <c r="L6">
-        <v>1.05597038201074</v>
+        <v>1.033965037547383</v>
       </c>
       <c r="M6">
-        <v>1.06120065382834</v>
+        <v>1.040131580195641</v>
       </c>
       <c r="N6">
-        <v>1.01571473444078</v>
+        <v>1.011600873516555</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030448157789658</v>
+        <v>1.003249519701756</v>
       </c>
       <c r="D7">
-        <v>1.034647622253848</v>
+        <v>1.021362054897035</v>
       </c>
       <c r="E7">
-        <v>1.053207346898535</v>
+        <v>1.022725559275676</v>
       </c>
       <c r="F7">
-        <v>1.058430732225432</v>
+        <v>1.028853566952885</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034777271159426</v>
+        <v>1.047677624739086</v>
       </c>
       <c r="J7">
-        <v>1.035004478531558</v>
+        <v>1.022564405714469</v>
       </c>
       <c r="K7">
-        <v>1.03713431971945</v>
+        <v>1.031206400656328</v>
       </c>
       <c r="L7">
-        <v>1.055647882302935</v>
+        <v>1.032554318630672</v>
       </c>
       <c r="M7">
-        <v>1.060858589792059</v>
+        <v>1.038612904565939</v>
       </c>
       <c r="N7">
-        <v>1.015624888602473</v>
+        <v>1.011171270696487</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028853939958326</v>
+        <v>0.9953913146350148</v>
       </c>
       <c r="D8">
-        <v>1.033435774803507</v>
+        <v>1.015385898236916</v>
       </c>
       <c r="E8">
-        <v>1.051610732882824</v>
+        <v>1.015537903073196</v>
       </c>
       <c r="F8">
-        <v>1.056752974826074</v>
+        <v>1.0212019950933</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034386499159746</v>
+        <v>1.045091029684662</v>
       </c>
       <c r="J8">
-        <v>1.033884411260262</v>
+        <v>1.017134054982276</v>
       </c>
       <c r="K8">
-        <v>1.036174477163669</v>
+        <v>1.026361414160963</v>
       </c>
       <c r="L8">
-        <v>1.054299328981728</v>
+        <v>1.026511437793066</v>
       </c>
       <c r="M8">
-        <v>1.059427732801794</v>
+        <v>1.032102230834769</v>
       </c>
       <c r="N8">
-        <v>1.015248201743099</v>
+        <v>1.00932244001663</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026038178879723</v>
+        <v>0.9806762741150435</v>
       </c>
       <c r="D9">
-        <v>1.03129234912249</v>
+        <v>1.004205251721164</v>
       </c>
       <c r="E9">
-        <v>1.048799404565999</v>
+        <v>1.002197526806479</v>
       </c>
       <c r="F9">
-        <v>1.053796565556439</v>
+        <v>1.006972386402792</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033681754625613</v>
+        <v>1.040129573961117</v>
       </c>
       <c r="J9">
-        <v>1.031900575496479</v>
+        <v>1.006930354562674</v>
       </c>
       <c r="K9">
-        <v>1.03447036072836</v>
+        <v>1.017230468120482</v>
       </c>
       <c r="L9">
-        <v>1.051920786675179</v>
+        <v>1.015255051003747</v>
       </c>
       <c r="M9">
-        <v>1.056902161016236</v>
+        <v>1.019953345380223</v>
       </c>
       <c r="N9">
-        <v>1.01458007993028</v>
+        <v>1.005845477164872</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024156429456433</v>
+        <v>0.9701930712849149</v>
       </c>
       <c r="D10">
-        <v>1.029857942897388</v>
+        <v>0.996253785409727</v>
       </c>
       <c r="E10">
-        <v>1.046926477602459</v>
+        <v>0.9927813729673468</v>
       </c>
       <c r="F10">
-        <v>1.051825493826484</v>
+        <v>0.9969081485821606</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033201027889643</v>
+        <v>1.036519528973183</v>
       </c>
       <c r="J10">
-        <v>1.030571100465203</v>
+        <v>0.9996413243635588</v>
       </c>
       <c r="K10">
-        <v>1.033325630814996</v>
+        <v>1.010691009955859</v>
       </c>
       <c r="L10">
-        <v>1.050333486082064</v>
+        <v>1.007282196692918</v>
       </c>
       <c r="M10">
-        <v>1.055215486583788</v>
+        <v>1.011333452659944</v>
       </c>
       <c r="N10">
-        <v>1.014131708734251</v>
+        <v>1.003360354688287</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023340486264152</v>
+        <v>0.9654712346079793</v>
       </c>
       <c r="D11">
-        <v>1.029235516257294</v>
+        <v>0.992677272736218</v>
       </c>
       <c r="E11">
-        <v>1.046115757075457</v>
+        <v>0.9885627347593492</v>
       </c>
       <c r="F11">
-        <v>1.050971934326917</v>
+        <v>0.9923939743722042</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032990274653596</v>
+        <v>1.034876723980295</v>
       </c>
       <c r="J11">
-        <v>1.029993758205745</v>
+        <v>0.9963545012259578</v>
       </c>
       <c r="K11">
-        <v>1.032827879372177</v>
+        <v>1.007738618960777</v>
       </c>
       <c r="L11">
-        <v>1.049645760526296</v>
+        <v>1.003703613129146</v>
       </c>
       <c r="M11">
-        <v>1.05448440761185</v>
+        <v>1.007460768940317</v>
       </c>
       <c r="N11">
-        <v>1.013936850558652</v>
+        <v>1.002239586746885</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023037234840678</v>
+        <v>0.9636877150169472</v>
       </c>
       <c r="D12">
-        <v>1.029004119332248</v>
+        <v>0.9913272697682489</v>
       </c>
       <c r="E12">
-        <v>1.045814657240171</v>
+        <v>0.9869728424910859</v>
       </c>
       <c r="F12">
-        <v>1.050654870555295</v>
+        <v>0.9906918924060307</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032911600757733</v>
+        <v>1.034253793216401</v>
       </c>
       <c r="J12">
-        <v>1.029779054382744</v>
+        <v>0.9951125470973686</v>
       </c>
       <c r="K12">
-        <v>1.032642678738131</v>
+        <v>1.006622533404595</v>
       </c>
       <c r="L12">
-        <v>1.049390244116625</v>
+        <v>1.00235395164903</v>
       </c>
       <c r="M12">
-        <v>1.054212738944226</v>
+        <v>1.00599962049154</v>
       </c>
       <c r="N12">
-        <v>1.013864364149877</v>
+        <v>1.001816085862109</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023102291221789</v>
+        <v>0.964071664210468</v>
       </c>
       <c r="D13">
-        <v>1.029053763834977</v>
+        <v>0.9916178494884749</v>
       </c>
       <c r="E13">
-        <v>1.045879242504992</v>
+        <v>0.9873149447070552</v>
       </c>
       <c r="F13">
-        <v>1.050722882480184</v>
+        <v>0.9910581719669522</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032928494271667</v>
+        <v>1.034388002594065</v>
       </c>
       <c r="J13">
-        <v>1.029825120574756</v>
+        <v>0.9953799295584403</v>
       </c>
       <c r="K13">
-        <v>1.032682419120953</v>
+        <v>1.006862839331195</v>
       </c>
       <c r="L13">
-        <v>1.049445056210942</v>
+        <v>1.002644407307637</v>
       </c>
       <c r="M13">
-        <v>1.054271017967503</v>
+        <v>1.006314094711411</v>
       </c>
       <c r="N13">
-        <v>1.01387991760169</v>
+        <v>1.001907262273753</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023315422972686</v>
+        <v>0.9653244260840502</v>
       </c>
       <c r="D14">
-        <v>1.029216393004551</v>
+        <v>0.9925661292848041</v>
       </c>
       <c r="E14">
-        <v>1.046090867311656</v>
+        <v>0.9884317911817068</v>
       </c>
       <c r="F14">
-        <v>1.050945726034274</v>
+        <v>0.9922538074913175</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032983779421066</v>
+        <v>1.034825496465318</v>
       </c>
       <c r="J14">
-        <v>1.029976015898686</v>
+        <v>0.9962522799458965</v>
       </c>
       <c r="K14">
-        <v>1.032812577037031</v>
+        <v>1.007646767433944</v>
       </c>
       <c r="L14">
-        <v>1.04962464078981</v>
+        <v>1.003592475051282</v>
       </c>
       <c r="M14">
-        <v>1.054461953722811</v>
+        <v>1.00734046205555</v>
       </c>
       <c r="N14">
-        <v>1.013930861004402</v>
+        <v>1.002204729839934</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023446717343561</v>
+        <v>0.9660922994996058</v>
       </c>
       <c r="D15">
-        <v>1.029316567654368</v>
+        <v>0.9931474965324445</v>
       </c>
       <c r="E15">
-        <v>1.046221261279759</v>
+        <v>0.9891168297968863</v>
       </c>
       <c r="F15">
-        <v>1.051083025391619</v>
+        <v>0.9929870651536299</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033017790621639</v>
+        <v>1.03509334140955</v>
       </c>
       <c r="J15">
-        <v>1.030068953870649</v>
+        <v>0.9967869240785997</v>
       </c>
       <c r="K15">
-        <v>1.032892730020115</v>
+        <v>1.008127154946965</v>
       </c>
       <c r="L15">
-        <v>1.049735280156848</v>
+        <v>1.004173859830696</v>
       </c>
       <c r="M15">
-        <v>1.054579580442398</v>
+        <v>1.007969787461166</v>
       </c>
       <c r="N15">
-        <v>1.013962234663846</v>
+        <v>1.002387040330865</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024210556741218</v>
+        <v>0.9705024161173889</v>
       </c>
       <c r="D16">
-        <v>1.029899223358912</v>
+        <v>0.9964882122657329</v>
       </c>
       <c r="E16">
-        <v>1.046980287905772</v>
+        <v>0.9930582333739</v>
       </c>
       <c r="F16">
-        <v>1.051882139987224</v>
+        <v>0.9972042941463344</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033214960135174</v>
+        <v>1.036626816024095</v>
       </c>
       <c r="J16">
-        <v>1.030609381381792</v>
+        <v>0.9998565869953316</v>
       </c>
       <c r="K16">
-        <v>1.033358621057499</v>
+        <v>1.010884298796382</v>
       </c>
       <c r="L16">
-        <v>1.050379119242706</v>
+        <v>1.00751691495422</v>
       </c>
       <c r="M16">
-        <v>1.055263990126224</v>
+        <v>1.011587383285439</v>
       </c>
       <c r="N16">
-        <v>1.01414462580393</v>
+        <v>1.003433754636838</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024689387118955</v>
+        <v>0.9732184175534477</v>
       </c>
       <c r="D17">
-        <v>1.030264353450179</v>
+        <v>0.9985470264344003</v>
       </c>
       <c r="E17">
-        <v>1.047456475511544</v>
+        <v>0.9954915991355171</v>
       </c>
       <c r="F17">
-        <v>1.052383382034635</v>
+        <v>0.9998065687248623</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033337943918385</v>
+        <v>1.037566894903768</v>
       </c>
       <c r="J17">
-        <v>1.030947928425339</v>
+        <v>1.001746152156136</v>
       </c>
       <c r="K17">
-        <v>1.033650305230768</v>
+        <v>1.012580579592309</v>
       </c>
       <c r="L17">
-        <v>1.050782870030055</v>
+        <v>1.009579141431505</v>
       </c>
       <c r="M17">
-        <v>1.055693102917718</v>
+        <v>1.013817990342275</v>
       </c>
       <c r="N17">
-        <v>1.014258844262523</v>
+        <v>1.004078039697532</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024968571673268</v>
+        <v>0.9747851628982627</v>
       </c>
       <c r="D18">
-        <v>1.030477200484097</v>
+        <v>0.9997351267924214</v>
       </c>
       <c r="E18">
-        <v>1.047734253836157</v>
+        <v>0.9968974197613074</v>
       </c>
       <c r="F18">
-        <v>1.052675741248743</v>
+        <v>1.001309485033883</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033409427918643</v>
+        <v>1.038107598781787</v>
       </c>
       <c r="J18">
-        <v>1.031145236129715</v>
+        <v>1.002835806318303</v>
       </c>
       <c r="K18">
-        <v>1.033820239503816</v>
+        <v>1.013558433859726</v>
       </c>
       <c r="L18">
-        <v>1.051018331254639</v>
+        <v>1.010769923552526</v>
       </c>
       <c r="M18">
-        <v>1.055943326134091</v>
+        <v>1.015105653278509</v>
       </c>
       <c r="N18">
-        <v>1.014325397450581</v>
+        <v>1.004449563203358</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025063747991634</v>
+        <v>0.975316485211021</v>
       </c>
       <c r="D19">
-        <v>1.03054975430403</v>
+        <v>1.000138114405459</v>
       </c>
       <c r="E19">
-        <v>1.047828973579421</v>
+        <v>0.9973745226881716</v>
       </c>
       <c r="F19">
-        <v>1.052775427120115</v>
+        <v>1.001819458186622</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033433759674842</v>
+        <v>1.038290692646076</v>
       </c>
       <c r="J19">
-        <v>1.031212485705114</v>
+        <v>1.003205272255003</v>
       </c>
       <c r="K19">
-        <v>1.03387814879829</v>
+        <v>1.013889933609463</v>
       </c>
       <c r="L19">
-        <v>1.051098610770104</v>
+        <v>1.011173942016675</v>
       </c>
       <c r="M19">
-        <v>1.056028633815296</v>
+        <v>1.015542483907547</v>
       </c>
       <c r="N19">
-        <v>1.014348078767784</v>
+        <v>1.004575531507363</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024638024462999</v>
+        <v>0.9729288365900171</v>
       </c>
       <c r="D20">
-        <v>1.030225191614438</v>
+        <v>0.9983274662986288</v>
       </c>
       <c r="E20">
-        <v>1.047405382402965</v>
+        <v>0.9952319319688574</v>
       </c>
       <c r="F20">
-        <v>1.052329604231286</v>
+        <v>0.9995289279323932</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033324774824747</v>
+        <v>1.037466827573783</v>
       </c>
       <c r="J20">
-        <v>1.030911622207324</v>
+        <v>1.001544722383189</v>
       </c>
       <c r="K20">
-        <v>1.033619030997268</v>
+        <v>1.012399789088306</v>
       </c>
       <c r="L20">
-        <v>1.050739555524019</v>
+        <v>1.009359143467498</v>
       </c>
       <c r="M20">
-        <v>1.055647070541156</v>
+        <v>1.013580065635168</v>
       </c>
       <c r="N20">
-        <v>1.014246596793938</v>
+        <v>1.004009359735009</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023252665810183</v>
+        <v>0.9649563553951491</v>
       </c>
       <c r="D21">
-        <v>1.029168508301497</v>
+        <v>0.992287491381981</v>
       </c>
       <c r="E21">
-        <v>1.046028548056199</v>
+        <v>0.9881035541468874</v>
       </c>
       <c r="F21">
-        <v>1.050880104565167</v>
+        <v>0.9919024371947008</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032967510116149</v>
+        <v>1.034697023026888</v>
       </c>
       <c r="J21">
-        <v>1.029931587993981</v>
+        <v>0.9959959889363079</v>
       </c>
       <c r="K21">
-        <v>1.032774257445211</v>
+        <v>1.007416467749038</v>
       </c>
       <c r="L21">
-        <v>1.049571759407121</v>
+        <v>1.003313868659397</v>
       </c>
       <c r="M21">
-        <v>1.054405731052291</v>
+        <v>1.00703886166743</v>
       </c>
       <c r="N21">
-        <v>1.013915862412328</v>
+        <v>1.002117335887126</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02238062857041</v>
+        <v>0.9597711042748407</v>
       </c>
       <c r="D22">
-        <v>1.028502971790281</v>
+        <v>0.9883645240106602</v>
       </c>
       <c r="E22">
-        <v>1.045163095449846</v>
+        <v>0.9834882023576521</v>
       </c>
       <c r="F22">
-        <v>1.049968665492684</v>
+        <v>0.9869598313565592</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032740622375945</v>
+        <v>1.032881509018802</v>
       </c>
       <c r="J22">
-        <v>1.029313935546284</v>
+        <v>0.9923844686221556</v>
       </c>
       <c r="K22">
-        <v>1.032241299611404</v>
+        <v>1.004170060428259</v>
       </c>
       <c r="L22">
-        <v>1.048837145200207</v>
+        <v>0.999394014573821</v>
       </c>
       <c r="M22">
-        <v>1.05362459436266</v>
+        <v>1.002794119591375</v>
       </c>
       <c r="N22">
-        <v>1.013707294827772</v>
+        <v>1.000885823115989</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022843008671583</v>
+        <v>0.9625370650931442</v>
       </c>
       <c r="D23">
-        <v>1.028855895619685</v>
+        <v>0.9904565831332262</v>
       </c>
       <c r="E23">
-        <v>1.045621868470626</v>
+        <v>0.9859481388189782</v>
       </c>
       <c r="F23">
-        <v>1.050451845244382</v>
+        <v>0.9895946486345586</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032861114479607</v>
+        <v>1.033851238286693</v>
       </c>
       <c r="J23">
-        <v>1.029641504491662</v>
+        <v>0.9943111732980506</v>
       </c>
       <c r="K23">
-        <v>1.032524003276994</v>
+        <v>1.005902240641759</v>
       </c>
       <c r="L23">
-        <v>1.049226614363119</v>
+        <v>1.001483800651699</v>
       </c>
       <c r="M23">
-        <v>1.054038752854793</v>
+        <v>1.005057430022909</v>
       </c>
       <c r="N23">
-        <v>1.013817919608132</v>
+        <v>1.001542820242143</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024661233373348</v>
+        <v>0.9730597395329174</v>
       </c>
       <c r="D24">
-        <v>1.030242887555278</v>
+        <v>0.9984267154307422</v>
       </c>
       <c r="E24">
-        <v>1.047428469098648</v>
+        <v>0.9953493060437951</v>
       </c>
       <c r="F24">
-        <v>1.05235390412674</v>
+        <v>0.9996544279088905</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033330726144885</v>
+        <v>1.037512067210276</v>
       </c>
       <c r="J24">
-        <v>1.030928027922074</v>
+        <v>1.001635778339452</v>
       </c>
       <c r="K24">
-        <v>1.033633163095695</v>
+        <v>1.012481516155812</v>
       </c>
       <c r="L24">
-        <v>1.050759127607739</v>
+        <v>1.009458588300934</v>
       </c>
       <c r="M24">
-        <v>1.055667870810085</v>
+        <v>1.013687614899367</v>
       </c>
       <c r="N24">
-        <v>1.014252131109481</v>
+        <v>1.004040406435456</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026766914193903</v>
+        <v>0.9845920196678997</v>
       </c>
       <c r="D25">
-        <v>1.031847431724488</v>
+        <v>1.007178642779565</v>
       </c>
       <c r="E25">
-        <v>1.049525963310387</v>
+        <v>1.005733010438611</v>
       </c>
       <c r="F25">
-        <v>1.054560881110589</v>
+        <v>1.010746940515269</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033865865996112</v>
+        <v>1.041463073602896</v>
       </c>
       <c r="J25">
-        <v>1.032414656212127</v>
+        <v>1.00964928769</v>
       </c>
       <c r="K25">
-        <v>1.034912434838374</v>
+        <v>1.019666532380225</v>
       </c>
       <c r="L25">
-        <v>1.052535971522301</v>
+        <v>1.018242975961774</v>
       </c>
       <c r="M25">
-        <v>1.05755559447903</v>
+        <v>1.023180683765028</v>
       </c>
       <c r="N25">
-        <v>1.014753324274017</v>
+        <v>1.006772247637365</v>
       </c>
     </row>
   </sheetData>
